--- a/classification/droptc/sentence/modern-bert/unfreeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/modern-bert/unfreeze/52680723/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999477207660675</v>
+        <v>0.9978823065757751</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9929695725440979</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9244096279144287</v>
+        <v>0.9385871887207031</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9985131621360779</v>
+        <v>0.950625479221344</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.998969554901123</v>
+        <v>0.9984868764877319</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9989369511604309</v>
+        <v>0.9994022846221924</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999395489692688</v>
+        <v>0.9987651109695435</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9961276650428772</v>
+        <v>0.9988810420036316</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9976648092269897</v>
+        <v>0.9987651109695435</v>
       </c>
     </row>
     <row r="11">
@@ -730,19 +730,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9875097274780273</v>
+        <v>0.997319757938385</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999355137348175</v>
+        <v>0.9999102354049683</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9994021654129028</v>
+        <v>0.981421947479248</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4943240582942963</v>
+        <v>0.9994957447052002</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9908491373062134</v>
+        <v>0.9976166486740112</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9141604900360107</v>
+        <v>0.9995126724243164</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9993877410888672</v>
+        <v>0.9994934797286987</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9971277117729187</v>
+        <v>0.8538165092468262</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9985131621360779</v>
+        <v>0.9997323155403137</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9911757707595825</v>
+        <v>0.9960792660713196</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9995182752609253</v>
+        <v>0.9996742010116577</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9953429698944092</v>
+        <v>0.9974231719970703</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9990925788879395</v>
+        <v>0.9991175532341003</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9993454813957214</v>
+        <v>0.9993278980255127</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9994520545005798</v>
+        <v>0.6463536024093628</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9593665599822998</v>
+        <v>0.9940168857574463</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9997469782829285</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9971101880073547</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9989872574806213</v>
+        <v>0.9981585144996643</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9991722106933594</v>
+        <v>0.9995241165161133</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9836375713348389</v>
+        <v>0.9970953464508057</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9957854151725769</v>
+        <v>0.9992707371711731</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6617817878723145</v>
+        <v>0.9620092511177063</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9988963603973389</v>
+        <v>0.9832557439804077</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9983591437339783</v>
+        <v>0.994823694229126</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9995381832122803</v>
+        <v>0.9953154325485229</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7407805919647217</v>
+        <v>0.9983698725700378</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.999542236328125</v>
+        <v>0.9993112087249756</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9995542168617249</v>
+        <v>0.8765338063240051</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9865462779998779</v>
+        <v>0.8833113312721252</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6948911547660828</v>
+        <v>0.9996535778045654</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9990365505218506</v>
+        <v>0.4661152064800262</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9995781779289246</v>
+        <v>0.9140093922615051</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9843953847885132</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9990000128746033</v>
+        <v>0.8953932523727417</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9995718598365784</v>
+        <v>0.773097038269043</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9472441673278809</v>
+        <v>0.9892535805702209</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9994957447052002</v>
+        <v>0.9572970271110535</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9992091059684753</v>
+        <v>0.9999146461486816</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9990610480308533</v>
+        <v>0.6306771636009216</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9976992011070251</v>
+        <v>0.394154965877533</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.979764997959137</v>
+        <v>0.9757692217826843</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>SurroundingEnvironment</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>SurroundingEnvironment</t>
-        </is>
-      </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9909541010856628</v>
+        <v>0.6306771636009216</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.999222993850708</v>
+        <v>0.8651484847068787</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6115413904190063</v>
+        <v>0.9995699524879456</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9963611960411072</v>
+        <v>0.9991171956062317</v>
       </c>
     </row>
     <row r="57">
@@ -2018,19 +2018,19 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E57" t="b">
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9891479015350342</v>
+        <v>0.9999117851257324</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9902964234352112</v>
+        <v>0.996454119682312</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9901341795921326</v>
+        <v>0.998248815536499</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9986926913261414</v>
+        <v>0.9931000471115112</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9994792342185974</v>
+        <v>0.9972668886184692</v>
       </c>
     </row>
     <row r="62">
@@ -2163,14 +2163,14 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8643456101417542</v>
+        <v>0.997148334980011</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9990379810333252</v>
+        <v>0.9975098371505737</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9963465332984924</v>
+        <v>0.9905945062637329</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9995335340499878</v>
+        <v>0.998606264591217</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9991546869277954</v>
+        <v>0.998606264591217</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9996106028556824</v>
+        <v>0.9968435764312744</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9933813810348511</v>
+        <v>0.998606264591217</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9995170831680298</v>
+        <v>0.995385468006134</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9870405793190002</v>
+        <v>0.9998064637184143</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9993293285369873</v>
+        <v>0.9982228875160217</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9959976673126221</v>
+        <v>0.9994464516639709</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.996832549571991</v>
+        <v>0.9971767663955688</v>
       </c>
     </row>
     <row r="74">
@@ -2499,14 +2499,14 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9991269707679749</v>
+        <v>0.8895814418792725</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9837386608123779</v>
+        <v>0.9995457530021667</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9993522763252258</v>
+        <v>0.9971767663955688</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8380064368247986</v>
+        <v>0.9986355900764465</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9992544054985046</v>
+        <v>0.9971767663955688</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9992075562477112</v>
+        <v>0.997628390789032</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9957854151725769</v>
+        <v>0.9986581802368164</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9993414282798767</v>
+        <v>0.9942118525505066</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9957854151725769</v>
+        <v>0.997048556804657</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9865083694458008</v>
+        <v>0.9982910752296448</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9993149042129517</v>
+        <v>0.9982910752296448</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9909981489181519</v>
+        <v>0.9997206330299377</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9969801306724548</v>
+        <v>0.9918265342712402</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9994687438011169</v>
+        <v>0.9682257175445557</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9921513795852661</v>
+        <v>0.9958756566047668</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9979428648948669</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9979950189590454</v>
+        <v>0.9998332262039185</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9880544543266296</v>
+        <v>0.9998323917388916</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9763809442520142</v>
+        <v>0.9998019337654114</v>
       </c>
     </row>
     <row r="93">
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3035,10 +3035,10 @@
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9379522800445557</v>
+        <v>0.9997952580451965</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9993020296096802</v>
+        <v>0.9997586607933044</v>
       </c>
     </row>
     <row r="95">
@@ -3082,19 +3082,19 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E95" t="b">
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9950284361839294</v>
+        <v>0.9997759461402893</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9479919075965881</v>
+        <v>0.988993227481842</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9812641143798828</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8353243470191956</v>
+        <v>0.9997300505638123</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9961276650428772</v>
+        <v>0.9997294545173645</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9903333783149719</v>
+        <v>0.9946485161781311</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9880544543266296</v>
+        <v>0.9994152784347534</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9992658495903015</v>
+        <v>0.9250571727752686</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9992809891700745</v>
+        <v>0.9977840781211853</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.997322142124176</v>
+        <v>0.9998088479042053</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9980528354644775</v>
+        <v>0.9972315430641174</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9992142915725708</v>
+        <v>0.99722820520401</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9995405673980713</v>
+        <v>0.6080902218818665</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9995354413986206</v>
+        <v>0.9912455677986145</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9743971824645996</v>
+        <v>0.9717608690261841</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9994334578514099</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9996008276939392</v>
+        <v>0.9827776551246643</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9921372532844543</v>
+        <v>0.9745191335678101</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9909981489181519</v>
+        <v>0.9795574545860291</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9997866749763489</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9945234060287476</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9995028972625732</v>
+        <v>0.9935407042503357</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9909981489181519</v>
+        <v>0.9968271851539612</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.999417781829834</v>
+        <v>0.8690481185913086</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9993361830711365</v>
+        <v>0.8748091459274292</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9303330779075623</v>
+        <v>0.9919143915176392</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9991023540496826</v>
+        <v>0.9991827607154846</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9989011287689209</v>
+        <v>0.9919143915176392</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9585024118423462</v>
+        <v>0.9991827607154846</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9898666143417358</v>
+        <v>0.9919143915176392</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9991660118103027</v>
+        <v>0.9995588660240173</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.999276340007782</v>
+        <v>0.9037018418312073</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9993956089019775</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9987152814865112</v>
+        <v>0.6242880821228027</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9972568154335022</v>
+        <v>0.8036291599273682</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9995296001434326</v>
+        <v>0.997381865978241</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9992075562477112</v>
+        <v>0.8093186616897583</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9950259327888489</v>
+        <v>0.9996131062507629</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9994114637374878</v>
+        <v>0.96602463722229</v>
       </c>
     </row>
     <row r="135">
@@ -4202,19 +4202,19 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E135" t="b">
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9718396663665771</v>
+        <v>0.9991758465766907</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9989961981773376</v>
+        <v>0.9978374838829041</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9985248446464539</v>
+        <v>0.9994485974311829</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9721378684043884</v>
+        <v>0.9981030225753784</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9992119073867798</v>
+        <v>0.9996920824050903</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.991722047328949</v>
+        <v>0.9988055229187012</v>
       </c>
     </row>
     <row r="141">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4379,10 +4379,10 @@
         </is>
       </c>
       <c r="E141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9967664480209351</v>
+        <v>0.5594991445541382</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.4755876958370209</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9995489716529846</v>
+        <v>0.9943709969520569</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9892422556877136</v>
+        <v>0.9993895292282104</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9882062077522278</v>
+        <v>0.9943709969520569</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9923989176750183</v>
+        <v>0.9875993728637695</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.998714804649353</v>
+        <v>0.995385468006134</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9993454813957214</v>
+        <v>0.9997946619987488</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8156406283378601</v>
+        <v>0.9974722266197205</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9995244741439819</v>
+        <v>0.9628804922103882</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9991644620895386</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9961276650428772</v>
+        <v>0.8941986560821533</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9967051148414612</v>
+        <v>0.9996198415756226</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.999177873134613</v>
+        <v>0.9965149164199829</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.5111286640167236</v>
+        <v>0.9997978806495667</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9994188547134399</v>
+        <v>0.7983590960502625</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9995197057723999</v>
+        <v>0.9997624754905701</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9943829774856567</v>
+        <v>0.9954223036766052</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9987301230430603</v>
+        <v>0.9997714161872864</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9881969094276428</v>
+        <v>0.6985606551170349</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9882062077522278</v>
+        <v>0.9987344145774841</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9993584752082825</v>
+        <v>0.9804220795631409</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9994980096817017</v>
+        <v>0.8864625096321106</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9965934157371521</v>
+        <v>0.9772031307220459</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9993050098419189</v>
+        <v>0.9998763799667358</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9994022846221924</v>
+        <v>0.9573026895523071</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9992656111717224</v>
+        <v>0.9542845487594604</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9983286261558533</v>
+        <v>0.647467315196991</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9898666143417358</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.8019681572914124</v>
+        <v>0.9542845487594604</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9990426898002625</v>
+        <v>0.7756883502006531</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9992049336433411</v>
+        <v>0.9993354678153992</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9851705431938171</v>
+        <v>0.9972763657569885</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9995353221893311</v>
+        <v>0.9989687204360962</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9992386102676392</v>
+        <v>0.9972763657569885</v>
       </c>
     </row>
     <row r="176">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -5359,10 +5359,10 @@
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9963473677635193</v>
+        <v>0.9995369911193848</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9988017082214355</v>
+        <v>0.9989687204360962</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9909541010856628</v>
+        <v>0.9991600513458252</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9932557344436646</v>
+        <v>0.9991710186004639</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9990235567092896</v>
+        <v>0.9668235778808594</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9995245933532715</v>
+        <v>0.9995303153991699</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9992656111717224</v>
+        <v>0.9982882142066956</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9988167285919189</v>
+        <v>0.9838995933532715</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9995611310005188</v>
+        <v>0.999854564666748</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9994797110557556</v>
+        <v>0.9992713332176208</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9700337052345276</v>
+        <v>0.9994693398475647</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9992154836654663</v>
+        <v>0.9992127418518066</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9928985834121704</v>
+        <v>0.9995531439781189</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.99859219789505</v>
+        <v>0.9992281198501587</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9318490028381348</v>
+        <v>0.9992843270301819</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9313136339187622</v>
+        <v>0.5270556211471558</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9537745118141174</v>
+        <v>0.9978811144828796</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9991546869277954</v>
+        <v>0.9995620846748352</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9992803931236267</v>
+        <v>0.9924098253250122</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9946921467781067</v>
+        <v>0.9873851537704468</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9850030541419983</v>
+        <v>0.9996695518493652</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9699934124946594</v>
+        <v>0.9989920258522034</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9061866402626038</v>
+        <v>0.9968720078468323</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.999295711517334</v>
+        <v>0.9988769888877869</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9263821244239807</v>
+        <v>0.9724136590957642</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9981984496116638</v>
+        <v>0.9995009899139404</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9987323880195618</v>
+        <v>0.9998027682304382</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9991687536239624</v>
+        <v>0.9991788268089294</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9942469596862793</v>
+        <v>0.9068871140480042</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9992077946662903</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9991486072540283</v>
+        <v>0.9995186328887939</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9830132126808167</v>
+        <v>0.9794341921806335</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9989988207817078</v>
+        <v>0.9983813762664795</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9158450961112976</v>
+        <v>0.605760931968689</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9347437024116516</v>
+        <v>0.9993213415145874</v>
       </c>
     </row>
   </sheetData>
